--- a/Xpath_Practice.xlsx
+++ b/Xpath_Practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vaibhav\ZtoH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vaibhav\github_repo\Repo_Vaibhav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBCA1EF-F4C6-48A1-B57C-EF5FDCEC11A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DBB85F-71E7-4A50-A14E-2278FF47502B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB16562F-2D67-45DB-AD63-7423C1C66AF0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>https://parabank.parasoft.com</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>//input[@id="customer.address.city"]</t>
+  </si>
+  <si>
+    <t>Register - Address</t>
+  </si>
+  <si>
+    <t>Register - City</t>
+  </si>
+  <si>
+    <t>//input[@id="customer.address.state"]</t>
+  </si>
+  <si>
+    <t>Register - State</t>
   </si>
 </sst>
 </file>
@@ -173,7 +185,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -490,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A146AC5-5805-415D-A3BD-A5DF134B47F5}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +663,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -662,33 +674,71 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Xpath_Practice.xlsx
+++ b/Xpath_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vaibhav\github_repo\Repo_Vaibhav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DBB85F-71E7-4A50-A14E-2278FF47502B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98269F22-2224-446F-BFB4-DF03B8CC44DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB16562F-2D67-45DB-AD63-7423C1C66AF0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>https://parabank.parasoft.com</t>
   </si>
@@ -124,6 +124,24 @@
   </si>
   <si>
     <t>Register - State</t>
+  </si>
+  <si>
+    <t>//input[@name="customer.address.zipCode"]</t>
+  </si>
+  <si>
+    <t>Register - Zip Code</t>
+  </si>
+  <si>
+    <t>Register - Phone#</t>
+  </si>
+  <si>
+    <t>//input[@name="customer.phoneNumber"]</t>
+  </si>
+  <si>
+    <t>//input[@id="customer.ssn"]</t>
+  </si>
+  <si>
+    <t>Register - SSN</t>
   </si>
 </sst>
 </file>
@@ -505,14 +523,14 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -695,15 +713,33 @@
       <c r="A18">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">

--- a/Xpath_Practice.xlsx
+++ b/Xpath_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vaibhav\github_repo\Repo_Vaibhav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98269F22-2224-446F-BFB4-DF03B8CC44DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAB094D-31DF-4B32-886B-B803EA95F1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB16562F-2D67-45DB-AD63-7423C1C66AF0}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>https://parabank.parasoft.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website --&gt; </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>//input[@name ="username"]</t>
   </si>
@@ -42,9 +36,6 @@
     <t>//input[@value ="Log In"]</t>
   </si>
   <si>
-    <t>Sr No</t>
-  </si>
-  <si>
     <t>//img[@title="ParaBank"]</t>
   </si>
   <si>
@@ -142,24 +133,115 @@
   </si>
   <si>
     <t>Register - SSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr No  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Website - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      https://parabank.parasoft.com   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <t>//input[@id="customer.username"]</t>
+  </si>
+  <si>
+    <t>Register - Username</t>
+  </si>
+  <si>
+    <t>Register - Password</t>
+  </si>
+  <si>
+    <t>//input[@name="customer.password"]</t>
+  </si>
+  <si>
+    <t>Register - Confirm</t>
+  </si>
+  <si>
+    <t>//input[@id="repeatedPassword"]</t>
+  </si>
+  <si>
+    <t>Register  Button</t>
+  </si>
+  <si>
+    <t>//input[@value="Register"]</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>X - Path</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,9 +254,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,7 +308,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -196,18 +316,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,266 +822,306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A146AC5-5805-415D-A3BD-A5DF134B47F5}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
-      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{10CFE00C-B530-42B7-8472-2D7BD894C0EE}"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Xpath_Practice.xlsx
+++ b/Xpath_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vaibhav\github_repo\Repo_Vaibhav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAB094D-31DF-4B32-886B-B803EA95F1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54563100-0673-4B3B-A669-ECCFFC965342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB16562F-2D67-45DB-AD63-7423C1C66AF0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>//input[@name ="username"]</t>
   </si>
@@ -136,6 +136,42 @@
   </si>
   <si>
     <t xml:space="preserve">Sr No  </t>
+  </si>
+  <si>
+    <t>//input[@id="customer.username"]</t>
+  </si>
+  <si>
+    <t>Register - Username</t>
+  </si>
+  <si>
+    <t>Register - Password</t>
+  </si>
+  <si>
+    <t>//input[@name="customer.password"]</t>
+  </si>
+  <si>
+    <t>Register - Confirm</t>
+  </si>
+  <si>
+    <t>//input[@id="repeatedPassword"]</t>
+  </si>
+  <si>
+    <t>Register  Button</t>
+  </si>
+  <si>
+    <t>//input[@value="Register"]</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>X - Path</t>
+  </si>
+  <si>
+    <t>//a[text()="www.parasoft.com"]</t>
+  </si>
+  <si>
+    <t>Visit Us at : www.parasoft.com</t>
   </si>
   <si>
     <r>
@@ -158,7 +194,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">                                    </t>
     </r>
     <r>
       <rPr>
@@ -202,36 +238,6 @@
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
-  </si>
-  <si>
-    <t>//input[@id="customer.username"]</t>
-  </si>
-  <si>
-    <t>Register - Username</t>
-  </si>
-  <si>
-    <t>Register - Password</t>
-  </si>
-  <si>
-    <t>//input[@name="customer.password"]</t>
-  </si>
-  <si>
-    <t>Register - Confirm</t>
-  </si>
-  <si>
-    <t>//input[@id="repeatedPassword"]</t>
-  </si>
-  <si>
-    <t>Register  Button</t>
-  </si>
-  <si>
-    <t>//input[@value="Register"]</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>X - Path</t>
   </si>
 </sst>
 </file>
@@ -495,10 +501,7 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -506,6 +509,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,6 +533,71 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>842294</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EE8E4E-B243-0C02-83FB-CB3A0CFEA58E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57149" y="107950"/>
+          <a:ext cx="1197895" cy="273049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -822,300 +899,304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A146AC5-5805-415D-A3BD-A5DF134B47F5}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F18" activeCellId="1" sqref="F9 F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="9" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="9" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="9"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1123,5 +1204,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Xpath_Practice.xlsx
+++ b/Xpath_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vaibhav\github_repo\Repo_Vaibhav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98269F22-2224-446F-BFB4-DF03B8CC44DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54563100-0673-4B3B-A669-ECCFFC965342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB16562F-2D67-45DB-AD63-7423C1C66AF0}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>https://parabank.parasoft.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website --&gt; </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>//input[@name ="username"]</t>
   </si>
@@ -42,9 +36,6 @@
     <t>//input[@value ="Log In"]</t>
   </si>
   <si>
-    <t>Sr No</t>
-  </si>
-  <si>
     <t>//img[@title="ParaBank"]</t>
   </si>
   <si>
@@ -142,24 +133,121 @@
   </si>
   <si>
     <t>Register - SSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr No  </t>
+  </si>
+  <si>
+    <t>//input[@id="customer.username"]</t>
+  </si>
+  <si>
+    <t>Register - Username</t>
+  </si>
+  <si>
+    <t>Register - Password</t>
+  </si>
+  <si>
+    <t>//input[@name="customer.password"]</t>
+  </si>
+  <si>
+    <t>Register - Confirm</t>
+  </si>
+  <si>
+    <t>//input[@id="repeatedPassword"]</t>
+  </si>
+  <si>
+    <t>Register  Button</t>
+  </si>
+  <si>
+    <t>//input[@value="Register"]</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>X - Path</t>
+  </si>
+  <si>
+    <t>//a[text()="www.parasoft.com"]</t>
+  </si>
+  <si>
+    <t>Visit Us at : www.parasoft.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Website - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      https://parabank.parasoft.com   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,9 +260,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -196,18 +322,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -221,6 +533,71 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>842294</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EE8E4E-B243-0C02-83FB-CB3A0CFEA58E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57149" y="107950"/>
+          <a:ext cx="1197895" cy="273049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,266 +899,311 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A146AC5-5805-415D-A3BD-A5DF134B47F5}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F18" activeCellId="1" sqref="F9 F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
-      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{10CFE00C-B530-42B7-8472-2D7BD894C0EE}"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Xpath_Practice.xlsx
+++ b/Xpath_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vaibhav\github_repo\Repo_Vaibhav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54563100-0673-4B3B-A669-ECCFFC965342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C284DC-B93C-4D1B-A767-A4B4696EBA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB16562F-2D67-45DB-AD63-7423C1C66AF0}"/>
   </bookViews>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A146AC5-5805-415D-A3BD-A5DF134B47F5}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F18" activeCellId="1" sqref="F9 F18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Xpath_Practice.xlsx
+++ b/Xpath_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vaibhav\github_repo\Repo_Vaibhav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C284DC-B93C-4D1B-A767-A4B4696EBA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17977DF0-4260-4BE2-A913-1E7889C76D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB16562F-2D67-45DB-AD63-7423C1C66AF0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>//input[@name ="username"]</t>
   </si>
@@ -238,6 +238,138 @@
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
+  </si>
+  <si>
+    <t>Account Service - Open Account</t>
+  </si>
+  <si>
+    <t>//a[text()='Open New Account']</t>
+  </si>
+  <si>
+    <t>Account Service - Select Account type(dropdown)</t>
+  </si>
+  <si>
+    <t>//select[@id='type']</t>
+  </si>
+  <si>
+    <t>Account Service - Select Account Number id (dropdown)</t>
+  </si>
+  <si>
+    <t>//select[@id='fromAccountId']</t>
+  </si>
+  <si>
+    <t>Account Service - Open New Account Button</t>
+  </si>
+  <si>
+    <t>//input[@class='button']</t>
+  </si>
+  <si>
+    <t>Account Overview - click</t>
+  </si>
+  <si>
+    <t>//a[text()='Accounts Overview']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Fund - Click </t>
+  </si>
+  <si>
+    <t>//a[text()='Transfer Funds']</t>
+  </si>
+  <si>
+    <t>Transfer Fund - Amount textbox</t>
+  </si>
+  <si>
+    <t>//input[@id="amount"]</t>
+  </si>
+  <si>
+    <t>Transfer Fund - Select Account Number(drop down)</t>
+  </si>
+  <si>
+    <t>//select[@id="fromAccountId"]</t>
+  </si>
+  <si>
+    <t>Transfer Fund - Select From Account Number(drop down)</t>
+  </si>
+  <si>
+    <t>Transfer Fund - Select to Account Number(drop down)</t>
+  </si>
+  <si>
+    <t>//select[@id="toAccountId"]</t>
+  </si>
+  <si>
+    <t>//input[@value="Transfer"]</t>
+  </si>
+  <si>
+    <t>Transfer Fund - Click on transfer button</t>
+  </si>
+  <si>
+    <t>//a[text()="Bill Pay"]</t>
+  </si>
+  <si>
+    <t>Bill Pay - Click</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="payee.name"]</t>
+  </si>
+  <si>
+    <t>//input[@name="payee.address.street"]</t>
+  </si>
+  <si>
+    <t>//input[@name="payee.address.city"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="payee.address.state"]</t>
+  </si>
+  <si>
+    <t>Bill Pay - City(textbox)</t>
+  </si>
+  <si>
+    <t>Bill Pay - Address(textbox)</t>
+  </si>
+  <si>
+    <t>Bill Pay - Payee Name(textbox)</t>
+  </si>
+  <si>
+    <t>Bill Pay - State(textbox)</t>
+  </si>
+  <si>
+    <t>//input[@name="payee.address.zipCode"]</t>
+  </si>
+  <si>
+    <t>//input[@id="f89eff2b-fa8f-4f02-93f7-b9b6b102fb99"]</t>
+  </si>
+  <si>
+    <t>Bill Pay - Phone# (textbox)</t>
+  </si>
+  <si>
+    <t>//input[@name="payee.accountNumber"]</t>
+  </si>
+  <si>
+    <t>Bill Pay - Account Number (textbox)</t>
+  </si>
+  <si>
+    <t>Bill Pay - Verify Account Number (textbox)</t>
+  </si>
+  <si>
+    <t>//input[@name="verifyAccount"]</t>
+  </si>
+  <si>
+    <t>//input[@name="amount"]</t>
+  </si>
+  <si>
+    <t>Bill Pay -Amount (textbox)</t>
+  </si>
+  <si>
+    <t>//select[@name="fromAccountId"]</t>
+  </si>
+  <si>
+    <t>Bill Pay -from Account (textbox)</t>
+  </si>
+  <si>
+    <t>//input[@value="Send Payment"]</t>
+  </si>
+  <si>
+    <t>Bill Pay -Send Payment (button)</t>
   </si>
 </sst>
 </file>
@@ -314,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -345,9 +477,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -356,9 +486,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -369,146 +497,16 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -518,6 +516,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,306 +896,573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A146AC5-5805-415D-A3BD-A5DF134B47F5}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Xpath_Practice.xlsx
+++ b/Xpath_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vaibhav\github_repo\Repo_Vaibhav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17977DF0-4260-4BE2-A913-1E7889C76D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB12EC-0744-4117-A7CE-AF1D8D908AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB16562F-2D67-45DB-AD63-7423C1C66AF0}"/>
   </bookViews>

--- a/Xpath_Practice.xlsx
+++ b/Xpath_Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vaibhav\github_repo\Repo_Vaibhav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB12EC-0744-4117-A7CE-AF1D8D908AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFF804B-75F1-4AC9-8368-DB0C29683BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB16562F-2D67-45DB-AD63-7423C1C66AF0}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -516,7 +516,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A146AC5-5805-415D-A3BD-A5DF134B47F5}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,7 +1211,7 @@
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1223,7 +1222,7 @@
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1231,10 +1230,10 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1242,10 +1241,10 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1253,10 +1252,10 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1264,10 +1263,10 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1275,10 +1274,10 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1286,7 +1285,7 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1297,7 +1296,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1308,7 +1307,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1319,7 +1318,7 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1330,7 +1329,7 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1341,7 +1340,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1352,7 +1351,7 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1363,7 +1362,7 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1374,7 +1373,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1385,7 +1384,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1396,7 +1395,7 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1407,7 +1406,7 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1418,7 +1417,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1429,7 +1428,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C48" s="1" t="s">
